--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1768637.082574179</v>
+        <v>1737444.201093118</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1141553.612261407</v>
+        <v>1141553.612261408</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6165603.330802534</v>
+        <v>6165603.330802539</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8089221.675362142</v>
+        <v>8089221.675362143</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>153.8973695713824</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>13.88908314418412</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>127.2735794774789</v>
+        <v>168.5052963341061</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>208.552253223164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.884457866842999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>83.14939821559865</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>99.36495471764918</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.09466579025866</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>67.79004839158823</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.5882918047081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1150,10 +1150,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>35.7939186386759</v>
+        <v>119.2181290081574</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.15737841164588</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1220,19 +1220,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>75.68677112918785</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5.479073053052385</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.50387586212027</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>31.79616801229886</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
@@ -1384,13 +1384,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.6280301125431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T12" t="n">
         <v>185.9745311655613</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>124.8390672247517</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>141.7571295937851</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>257.1057913682925</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>194.7158555947865</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>201.2472036243773</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.5609956070679</v>
+        <v>174.6425517114568</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>192.2960751268664</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.05723091947836</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>77.02314723621188</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>141.19597718491</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>308.5889506748003</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>156.1824156632985</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.62087511199729</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I23" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.64651753167264</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S23" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>282.2378712344443</v>
       </c>
       <c r="W23" t="n">
-        <v>259.2911332121725</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I24" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S24" t="n">
         <v>139.8667397074436</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U25" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>34.49533921685218</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.8117279405756</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>257.8303554928512</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S26" t="n">
         <v>159.2066729054946</v>
@@ -2620,10 +2620,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>187.174647427135</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I27" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S27" t="n">
         <v>139.8667397074436</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.1000163167078</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>41.55063611768789</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>41.16868792346587</v>
+        <v>97.07022543716724</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>17.64651753167264</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S29" t="n">
         <v>159.2066729054946</v>
@@ -2851,16 +2851,16 @@
         <v>252.2446781610247</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I30" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S30" t="n">
         <v>139.8667397074436</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>95.20430750344369</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>113.4106508168785</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H32" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>159.2066729054946</v>
@@ -3085,19 +3085,19 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2446781610247</v>
+        <v>179.6418715379153</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>131.7760758140241</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I33" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S33" t="n">
         <v>139.8667397074436</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>152.2784546088863</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.046037040859655</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T34" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U34" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
@@ -3280,13 +3280,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>17.92427260856471</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>17.64651753167264</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S35" t="n">
         <v>159.2066729054946</v>
       </c>
       <c r="T35" t="n">
-        <v>217.0919149789806</v>
+        <v>51.06996112357267</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3365,7 +3365,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I36" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S36" t="n">
         <v>139.8667397074436</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>56.48036785096925</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U37" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>238.2919263925324</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
@@ -3514,10 +3514,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.7953871538391</v>
+        <v>268.2576995803427</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>17.64651753167264</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S38" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>48.33208751952066</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -3602,7 +3602,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I39" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S39" t="n">
         <v>139.8667397074436</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.861313171095339</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S40" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U40" t="n">
-        <v>114.4060728813976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H41" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>159.2066729054946</v>
       </c>
       <c r="T41" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>190.2372318074018</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>231.4737548352985</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.22807094151588</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H43" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>202.601877043025</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>71.57613094415076</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>107.5293983251657</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H44" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2446781610247</v>
+        <v>94.01657813320207</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.3331399798496</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>95.48141466567583</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I46" t="n">
         <v>127.2809062519456</v>
@@ -4185,7 +4185,7 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S46" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.0452009605541</v>
+        <v>613.580131102953</v>
       </c>
       <c r="C2" t="n">
-        <v>251.0452009605541</v>
+        <v>613.580131102953</v>
       </c>
       <c r="D2" t="n">
-        <v>251.0452009605541</v>
+        <v>613.580131102953</v>
       </c>
       <c r="E2" t="n">
-        <v>251.0452009605541</v>
+        <v>613.580131102953</v>
       </c>
       <c r="F2" t="n">
-        <v>240.9344143111285</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G2" t="n">
-        <v>228.8708318057205</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
@@ -4369,13 +4369,13 @@
         <v>1007.121986527115</v>
       </c>
       <c r="W2" t="n">
-        <v>644.5870563847161</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X2" t="n">
-        <v>644.5870563847161</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.0452009605541</v>
+        <v>613.580131102953</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>759.6333438441981</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
         <v>759.6333438441981</v>
@@ -4409,52 +4409,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1882.718012658271</v>
       </c>
       <c r="V3" t="n">
-        <v>1352.88998174257</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W3" t="n">
-        <v>1111.57411297588</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X3" t="n">
-        <v>1111.57411297588</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y3" t="n">
-        <v>919.052786625459</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.5049110754221</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="C4" t="n">
-        <v>194.5049110754221</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="D4" t="n">
-        <v>194.5049110754221</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="E4" t="n">
-        <v>194.5049110754221</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W4" t="n">
-        <v>386.0243786151989</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="X4" t="n">
-        <v>386.0243786151989</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="Y4" t="n">
-        <v>378.0602797598019</v>
+        <v>363.4246597075721</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.5036838795634</v>
+        <v>1035.760148243987</v>
       </c>
       <c r="C5" t="n">
-        <v>152.5036838795634</v>
+        <v>653.8263895767948</v>
       </c>
       <c r="D5" t="n">
-        <v>152.5036838795634</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="E5" t="n">
-        <v>152.5036838795634</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="F5" t="n">
-        <v>142.3928972301378</v>
+        <v>559.7263118005019</v>
       </c>
       <c r="G5" t="n">
-        <v>42.02425610119924</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119924</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I5" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L5" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O5" t="n">
-        <v>1778.623654917372</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P5" t="n">
-        <v>2006.780551373425</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q5" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059962</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>1913.983829690316</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.983829690316</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U5" t="n">
-        <v>1659.09849340431</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.119219300251</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W5" t="n">
-        <v>1322.119219300251</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="X5" t="n">
-        <v>940.0890788217446</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.5472233975826</v>
+        <v>1429.803687762007</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.5572604841334</v>
+        <v>674.4636602520131</v>
       </c>
       <c r="C6" t="n">
-        <v>556.5572604841334</v>
+        <v>512.7599874929679</v>
       </c>
       <c r="D6" t="n">
-        <v>417.7186234743454</v>
+        <v>373.9213504831799</v>
       </c>
       <c r="E6" t="n">
-        <v>270.6906135312166</v>
+        <v>373.9213504831799</v>
       </c>
       <c r="F6" t="n">
-        <v>270.6906135312166</v>
+        <v>239.2275524330543</v>
       </c>
       <c r="G6" t="n">
-        <v>141.9621135545012</v>
+        <v>110.4990524563389</v>
       </c>
       <c r="H6" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
         <v>102.2784026343054</v>
@@ -4652,46 +4652,46 @@
         <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.145305214519</v>
+        <v>1328.067954827843</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1720.267905611993</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2022.363824887691</v>
       </c>
       <c r="Q6" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154908</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167648</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333633</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380277</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913815</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409603</v>
+        <v>833.8831030332741</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.5599742716689</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K7" t="n">
         <v>75.62844384584264</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.5599742716689</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>867.9637832951023</v>
+        <v>517.4422521922158</v>
       </c>
       <c r="C8" t="n">
-        <v>867.9637832951023</v>
+        <v>517.4422521922158</v>
       </c>
       <c r="D8" t="n">
-        <v>495.1398185223259</v>
+        <v>517.4422521922158</v>
       </c>
       <c r="E8" t="n">
-        <v>100.3540986284327</v>
+        <v>517.4422521922158</v>
       </c>
       <c r="F8" t="n">
-        <v>90.2433119790071</v>
+        <v>507.3314655427902</v>
       </c>
       <c r="G8" t="n">
-        <v>78.17972947359914</v>
+        <v>495.2678830373823</v>
       </c>
       <c r="H8" t="n">
-        <v>78.17972947359914</v>
+        <v>162.4466086346915</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119924</v>
@@ -4810,7 +4810,7 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037337</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
         <v>1095.287711756822</v>
@@ -4819,7 +4819,7 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P8" t="n">
         <v>2006.780551373425</v>
@@ -4843,13 +4843,13 @@
         <v>1262.007322813121</v>
       </c>
       <c r="W8" t="n">
-        <v>1262.007322813121</v>
+        <v>899.4723926707225</v>
       </c>
       <c r="X8" t="n">
-        <v>1262.007322813121</v>
+        <v>517.4422521922158</v>
       </c>
       <c r="Y8" t="n">
-        <v>1262.007322813121</v>
+        <v>517.4422521922158</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>605.9888638968736</v>
+        <v>792.6085166265279</v>
       </c>
       <c r="C9" t="n">
-        <v>444.2851911378282</v>
+        <v>630.9048438674827</v>
       </c>
       <c r="D9" t="n">
-        <v>305.4465541280403</v>
+        <v>492.0662068576947</v>
       </c>
       <c r="E9" t="n">
-        <v>305.4465541280403</v>
+        <v>345.0381969145659</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7527560779147</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119924</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119924</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119924</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119924</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667651</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769915</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000114</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059962</v>
@@ -4913,22 +4913,22 @@
         <v>1888.629049167648</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333633</v>
+        <v>1812.177765198771</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1812.177765198771</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380277</v>
+        <v>1583.782142647105</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1342.466273880415</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913815</v>
+        <v>1144.54928575821</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409603</v>
+        <v>952.0279594077888</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.67463575990658</v>
+        <v>352.0483425394087</v>
       </c>
       <c r="C10" t="n">
-        <v>56.67463575990658</v>
+        <v>352.0483425394087</v>
       </c>
       <c r="D10" t="n">
-        <v>56.67463575990658</v>
+        <v>352.0483425394087</v>
       </c>
       <c r="E10" t="n">
-        <v>56.67463575990658</v>
+        <v>200.0393283007276</v>
       </c>
       <c r="F10" t="n">
-        <v>56.67463575990658</v>
+        <v>47.55867332650467</v>
       </c>
       <c r="G10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119924</v>
@@ -5001,13 +5001,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>287.9270998645308</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>56.67463575990658</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.67463575990658</v>
+        <v>352.0483425394087</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1977.203076502887</v>
+        <v>1772.491842456941</v>
       </c>
       <c r="C11" t="n">
-        <v>1977.203076502887</v>
+        <v>1390.558083789748</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.379111730111</v>
+        <v>1017.734119016972</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.593391836218</v>
+        <v>622.9483991230786</v>
       </c>
       <c r="F11" t="n">
-        <v>795.442201146388</v>
+        <v>208.797208433249</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7240237655113</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
@@ -5044,16 +5044,16 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
@@ -5068,25 +5068,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>2542.695873660731</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T11" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="V11" t="n">
-        <v>2542.695873660731</v>
+        <v>1804.609183883505</v>
       </c>
       <c r="W11" t="n">
-        <v>2542.695873660731</v>
+        <v>1804.609183883505</v>
       </c>
       <c r="X11" t="n">
-        <v>2160.665733182224</v>
+        <v>1804.609183883505</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.203076502887</v>
+        <v>1804.609183883505</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>313.014426141483</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219088</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803009</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N12" t="n">
-        <v>1822.946479591694</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O12" t="n">
         <v>2201.966047520445</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.9539853770042</v>
+        <v>177.9783837302434</v>
       </c>
       <c r="C13" t="n">
-        <v>176.9539853770042</v>
+        <v>177.9783837302434</v>
       </c>
       <c r="D13" t="n">
-        <v>176.9539853770042</v>
+        <v>177.9783837302434</v>
       </c>
       <c r="E13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
         <v>50.85391747321462</v>
@@ -5208,43 +5208,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N13" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O13" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P13" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q13" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R13" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S13" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T13" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U13" t="n">
-        <v>437.6892898185816</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="V13" t="n">
-        <v>176.9539853770042</v>
+        <v>464.1347852128443</v>
       </c>
       <c r="W13" t="n">
-        <v>176.9539853770042</v>
+        <v>177.9783837302434</v>
       </c>
       <c r="X13" t="n">
-        <v>176.9539853770042</v>
+        <v>177.9783837302434</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.9539853770042</v>
+        <v>177.9783837302434</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1002.97984784864</v>
+        <v>1693.15511596178</v>
       </c>
       <c r="C14" t="n">
-        <v>859.7908280569375</v>
+        <v>1693.15511596178</v>
       </c>
       <c r="D14" t="n">
-        <v>859.7908280569375</v>
+        <v>1693.15511596178</v>
       </c>
       <c r="E14" t="n">
-        <v>465.0051081630443</v>
+        <v>1298.369396067887</v>
       </c>
       <c r="F14" t="n">
-        <v>50.85391747321462</v>
+        <v>884.2182053780575</v>
       </c>
       <c r="G14" t="n">
-        <v>50.85391747321462</v>
+        <v>468.5000279971808</v>
       </c>
       <c r="H14" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321462</v>
@@ -5302,28 +5302,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.258524637049</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T14" t="n">
-        <v>2141.588457987564</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U14" t="n">
-        <v>2141.588457987564</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="V14" t="n">
-        <v>2141.588457987564</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="W14" t="n">
-        <v>1779.053527845165</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="X14" t="n">
-        <v>1397.023387366659</v>
+        <v>1693.15511596178</v>
       </c>
       <c r="Y14" t="n">
-        <v>1397.023387366659</v>
+        <v>1693.15511596178</v>
       </c>
     </row>
     <row r="15">
@@ -5366,16 +5366,16 @@
         <v>802.1338407649491</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122672</v>
+        <v>2342.651863910041</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.69587366073</v>
@@ -5457,31 +5457,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>504.1415403855618</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U16" t="n">
-        <v>504.1415403855618</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V16" t="n">
-        <v>504.1415403855618</v>
+        <v>234.4092861575944</v>
       </c>
       <c r="W16" t="n">
-        <v>504.1415403855618</v>
+        <v>234.4092861575944</v>
       </c>
       <c r="X16" t="n">
-        <v>272.8890762809376</v>
+        <v>234.4092861575944</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.85391747321462</v>
+        <v>234.4092861575944</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>861.3578147479845</v>
+        <v>1418.131204614491</v>
       </c>
       <c r="C17" t="n">
-        <v>861.3578147479845</v>
+        <v>1036.197445947298</v>
       </c>
       <c r="D17" t="n">
-        <v>861.3578147479845</v>
+        <v>1036.197445947298</v>
       </c>
       <c r="E17" t="n">
-        <v>466.5720948540913</v>
+        <v>641.4117260534047</v>
       </c>
       <c r="F17" t="n">
-        <v>466.5720948540913</v>
+        <v>227.260535363575</v>
       </c>
       <c r="G17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532631</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5536,31 +5536,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R17" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S17" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T17" t="n">
-        <v>2348.457413936623</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="U17" t="n">
-        <v>2348.457413936623</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="V17" t="n">
-        <v>2011.478139832564</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="W17" t="n">
-        <v>1648.943209690166</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="X17" t="n">
-        <v>1648.943209690166</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="Y17" t="n">
-        <v>1255.401354266004</v>
+        <v>1812.17474413251</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I18" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J18" t="n">
-        <v>130.2226992162549</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L18" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M18" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
         <v>2018.368674122672</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.85391747321462</v>
+        <v>128.6550762976711</v>
       </c>
       <c r="C19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K19" t="n">
         <v>104.1644935890949</v>
@@ -5700,25 +5700,25 @@
         <v>583.1297470766741</v>
       </c>
       <c r="S19" t="n">
-        <v>372.4359606620631</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="T19" t="n">
-        <v>372.4359606620631</v>
+        <v>350.690235105394</v>
       </c>
       <c r="U19" t="n">
-        <v>85.25516082622306</v>
+        <v>350.690235105394</v>
       </c>
       <c r="V19" t="n">
-        <v>85.25516082622306</v>
+        <v>350.690235105394</v>
       </c>
       <c r="W19" t="n">
-        <v>85.25516082622306</v>
+        <v>350.690235105394</v>
       </c>
       <c r="X19" t="n">
-        <v>85.25516082622306</v>
+        <v>350.690235105394</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.25516082622306</v>
+        <v>128.6550762976711</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1064.253999320914</v>
+        <v>1418.131204614491</v>
       </c>
       <c r="C20" t="n">
-        <v>1064.253999320914</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D20" t="n">
-        <v>691.4300345481379</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E20" t="n">
-        <v>691.4300345481379</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F20" t="n">
-        <v>691.4300345481379</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G20" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H20" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532631</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907115</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
@@ -5773,31 +5773,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R20" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2297.855323089771</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2075.185256440287</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U20" t="n">
-        <v>1820.330784887475</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V20" t="n">
-        <v>1820.330784887475</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="W20" t="n">
-        <v>1457.795854745076</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="X20" t="n">
-        <v>1457.795854745076</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="Y20" t="n">
-        <v>1064.253999320914</v>
+        <v>1812.17474413251</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I21" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>130.2226992162549</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="K21" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L21" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M21" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N21" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
         <v>2018.368674122672</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.85391747321461</v>
+        <v>361.0945882689512</v>
       </c>
       <c r="C22" t="n">
-        <v>50.85391747321461</v>
+        <v>361.0945882689512</v>
       </c>
       <c r="D22" t="n">
-        <v>50.85391747321461</v>
+        <v>361.0945882689512</v>
       </c>
       <c r="E22" t="n">
-        <v>50.85391747321461</v>
+        <v>361.0945882689512</v>
       </c>
       <c r="F22" t="n">
-        <v>50.85391747321461</v>
+        <v>208.6139332947283</v>
       </c>
       <c r="G22" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H22" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I22" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J22" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K22" t="n">
         <v>104.1644935890949</v>
@@ -5931,31 +5931,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q22" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>559.0838802267906</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="S22" t="n">
-        <v>348.3900938121795</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="T22" t="n">
-        <v>348.3900938121795</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="U22" t="n">
-        <v>348.3900938121795</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="V22" t="n">
-        <v>348.3900938121795</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="W22" t="n">
-        <v>348.3900938121795</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="X22" t="n">
-        <v>117.1376297075553</v>
+        <v>583.1297470766741</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.85391747321461</v>
+        <v>361.0945882689512</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1006.412269192437</v>
+        <v>2368.142273726693</v>
       </c>
       <c r="C23" t="n">
-        <v>1006.412269192437</v>
+        <v>1986.2085150595</v>
       </c>
       <c r="D23" t="n">
-        <v>1006.412269192437</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="E23" t="n">
-        <v>611.6265492985435</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F23" t="n">
-        <v>611.6265492985435</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G23" t="n">
-        <v>196.6817137896151</v>
+        <v>389.5028041940724</v>
       </c>
       <c r="H23" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I23" t="n">
         <v>68.55268534786579</v>
@@ -6016,25 +6016,25 @@
         <v>3409.809502209782</v>
       </c>
       <c r="S23" t="n">
-        <v>3248.994681093121</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.70991848809</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="U23" t="n">
-        <v>2774.917314285035</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="V23" t="n">
-        <v>2437.938040180976</v>
+        <v>3124.720743387111</v>
       </c>
       <c r="W23" t="n">
-        <v>2176.027804613125</v>
+        <v>2762.185813244712</v>
       </c>
       <c r="X23" t="n">
-        <v>1793.997664134618</v>
+        <v>2762.185813244712</v>
       </c>
       <c r="Y23" t="n">
-        <v>1400.455808710456</v>
+        <v>2762.185813244712</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G24" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H24" t="n">
         <v>115.581576881063</v>
@@ -6068,25 +6068,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J24" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K24" t="n">
-        <v>396.1990541494053</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L24" t="n">
-        <v>416.7319830305476</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M24" t="n">
-        <v>882.312801287401</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N24" t="n">
-        <v>1551.672310226501</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P24" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q24" t="n">
         <v>2506.667490147568</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.55268534786579</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="C25" t="n">
-        <v>68.55268534786579</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="D25" t="n">
-        <v>68.55268534786579</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="E25" t="n">
-        <v>68.55268534786579</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="F25" t="n">
-        <v>68.55268534786579</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="G25" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H25" t="n">
         <v>68.55268534786579</v>
@@ -6174,25 +6174,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S25" t="n">
-        <v>827.3708054186045</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T25" t="n">
-        <v>827.3708054186045</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="U25" t="n">
-        <v>540.2089271031559</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="V25" t="n">
-        <v>279.4736226615785</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="W25" t="n">
-        <v>279.4736226615785</v>
+        <v>766.2180628741276</v>
       </c>
       <c r="X25" t="n">
-        <v>279.4736226615785</v>
+        <v>766.2180628741276</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.55268534786579</v>
+        <v>544.1829040664046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2123.447337395666</v>
+        <v>1125.07233722292</v>
       </c>
       <c r="C26" t="n">
-        <v>1741.513578728473</v>
+        <v>743.138578555727</v>
       </c>
       <c r="D26" t="n">
-        <v>1741.513578728473</v>
+        <v>482.7038760376955</v>
       </c>
       <c r="E26" t="n">
-        <v>1346.72785883458</v>
+        <v>482.7038760376955</v>
       </c>
       <c r="F26" t="n">
-        <v>932.5766681447501</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G26" t="n">
-        <v>517.6318326358218</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H26" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I26" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J26" t="n">
-        <v>236.9749331805676</v>
+        <v>236.9749331805681</v>
       </c>
       <c r="K26" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950432</v>
       </c>
       <c r="L26" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M26" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N26" t="n">
         <v>2322.568598257194</v>
@@ -6250,28 +6250,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R26" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="S26" t="n">
-        <v>3266.819446276628</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="T26" t="n">
-        <v>3266.819446276628</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="U26" t="n">
-        <v>3012.026842073573</v>
+        <v>2994.202076890065</v>
       </c>
       <c r="V26" t="n">
-        <v>2675.047567969514</v>
+        <v>2657.222802786006</v>
       </c>
       <c r="W26" t="n">
-        <v>2312.512637827115</v>
+        <v>2294.687872643608</v>
       </c>
       <c r="X26" t="n">
-        <v>2123.447337395666</v>
+        <v>1912.657732165101</v>
       </c>
       <c r="Y26" t="n">
-        <v>2123.447337395666</v>
+        <v>1519.115876740939</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G27" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H27" t="n">
         <v>115.581576881063</v>
@@ -6308,22 +6308,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K27" t="n">
-        <v>396.1990541494053</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L27" t="n">
-        <v>416.7319830305476</v>
+        <v>566.35713863456</v>
       </c>
       <c r="M27" t="n">
-        <v>1055.782814995369</v>
+        <v>1205.407970599382</v>
       </c>
       <c r="N27" t="n">
-        <v>1316.308077135688</v>
+        <v>1874.767479538482</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.133026253341</v>
+        <v>2411.592428656135</v>
       </c>
       <c r="P27" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q27" t="n">
         <v>2506.667490147568</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.55268534786579</v>
+        <v>514.6103004808996</v>
       </c>
       <c r="C28" t="n">
-        <v>68.55268534786579</v>
+        <v>514.6103004808996</v>
       </c>
       <c r="D28" t="n">
-        <v>68.55268534786579</v>
+        <v>361.5384073086623</v>
       </c>
       <c r="E28" t="n">
-        <v>68.55268534786579</v>
+        <v>221.0333403220887</v>
       </c>
       <c r="F28" t="n">
         <v>68.55268534786579</v>
@@ -6408,28 +6408,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R28" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S28" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T28" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U28" t="n">
-        <v>618.7145851510056</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V28" t="n">
-        <v>576.7442456381896</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="W28" t="n">
-        <v>290.5878441555887</v>
+        <v>745.8627645855238</v>
       </c>
       <c r="X28" t="n">
-        <v>290.5878441555887</v>
+        <v>514.6103004808996</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.55268534786579</v>
+        <v>514.6103004808996</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1844.081751805485</v>
+        <v>1518.614192647082</v>
       </c>
       <c r="C29" t="n">
-        <v>1462.147993138293</v>
+        <v>1518.614192647082</v>
       </c>
       <c r="D29" t="n">
         <v>1420.563459882266</v>
@@ -6499,16 +6499,16 @@
         <v>2994.202076890065</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.202076890065</v>
+        <v>2657.222802786006</v>
       </c>
       <c r="W29" t="n">
-        <v>2631.667146747666</v>
+        <v>2294.687872643608</v>
       </c>
       <c r="X29" t="n">
-        <v>2631.667146747666</v>
+        <v>1912.657732165101</v>
       </c>
       <c r="Y29" t="n">
-        <v>2238.125291323504</v>
+        <v>1912.657732165101</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G30" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H30" t="n">
         <v>115.581576881063</v>
@@ -6545,16 +6545,16 @@
         <v>186.2361291527469</v>
       </c>
       <c r="K30" t="n">
-        <v>513.8824979542864</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L30" t="n">
         <v>1011.686951240981</v>
       </c>
       <c r="M30" t="n">
-        <v>1051.375366159552</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N30" t="n">
-        <v>1316.308077135688</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O30" t="n">
         <v>1853.133026253341</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.55268534786579</v>
+        <v>485.1274601439463</v>
       </c>
       <c r="C31" t="n">
-        <v>68.55268534786579</v>
+        <v>485.1274601439463</v>
       </c>
       <c r="D31" t="n">
-        <v>68.55268534786579</v>
+        <v>485.1274601439463</v>
       </c>
       <c r="E31" t="n">
-        <v>68.55268534786579</v>
+        <v>333.1184459052651</v>
       </c>
       <c r="F31" t="n">
-        <v>68.55268534786579</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G31" t="n">
         <v>68.55268534786579</v>
@@ -6645,28 +6645,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R31" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S31" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T31" t="n">
-        <v>470.2707766096562</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U31" t="n">
-        <v>183.1088982942077</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V31" t="n">
-        <v>68.55268534786579</v>
+        <v>771.2838616265472</v>
       </c>
       <c r="W31" t="n">
-        <v>68.55268534786579</v>
+        <v>485.1274601439463</v>
       </c>
       <c r="X31" t="n">
-        <v>68.55268534786579</v>
+        <v>485.1274601439463</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.55268534786579</v>
+        <v>485.1274601439463</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.222282755158</v>
+        <v>1741.513578728473</v>
       </c>
       <c r="C32" t="n">
-        <v>784.2885240879656</v>
+        <v>1741.513578728473</v>
       </c>
       <c r="D32" t="n">
-        <v>784.2885240879656</v>
+        <v>1741.513578728473</v>
       </c>
       <c r="E32" t="n">
-        <v>389.5028041940724</v>
+        <v>1346.72785883458</v>
       </c>
       <c r="F32" t="n">
-        <v>389.5028041940724</v>
+        <v>932.5766681447501</v>
       </c>
       <c r="G32" t="n">
-        <v>389.5028041940724</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="H32" t="n">
-        <v>68.55268534786579</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I32" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J32" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K32" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950429</v>
       </c>
       <c r="L32" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M32" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N32" t="n">
         <v>2322.568598257194</v>
@@ -6724,28 +6724,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R32" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S32" t="n">
-        <v>3248.994681093121</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T32" t="n">
-        <v>3029.70991848809</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="U32" t="n">
-        <v>2774.917314285035</v>
+        <v>2866.078247774713</v>
       </c>
       <c r="V32" t="n">
-        <v>2437.938040180976</v>
+        <v>2529.098973670654</v>
       </c>
       <c r="W32" t="n">
-        <v>2075.403110038577</v>
+        <v>2529.098973670654</v>
       </c>
       <c r="X32" t="n">
-        <v>1693.37296956007</v>
+        <v>2529.098973670654</v>
       </c>
       <c r="Y32" t="n">
-        <v>1560.265822273177</v>
+        <v>2135.557118246492</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G33" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H33" t="n">
         <v>115.581576881063</v>
@@ -6779,19 +6779,19 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J33" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K33" t="n">
-        <v>396.1990541494053</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L33" t="n">
-        <v>894.0035074360995</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M33" t="n">
         <v>1263.862203976741</v>
       </c>
       <c r="N33" t="n">
-        <v>1316.308077135688</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O33" t="n">
         <v>1853.133026253341</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.55268534786579</v>
+        <v>374.3783204036039</v>
       </c>
       <c r="C34" t="n">
-        <v>68.55268534786579</v>
+        <v>374.3783204036039</v>
       </c>
       <c r="D34" t="n">
-        <v>68.55268534786579</v>
+        <v>374.3783204036039</v>
       </c>
       <c r="E34" t="n">
-        <v>68.55268534786579</v>
+        <v>222.3693061649227</v>
       </c>
       <c r="F34" t="n">
-        <v>68.55268534786579</v>
+        <v>222.3693061649227</v>
       </c>
       <c r="G34" t="n">
         <v>68.55268534786579</v>
@@ -6882,28 +6882,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R34" t="n">
-        <v>1030.962562996549</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S34" t="n">
-        <v>1030.962562996549</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T34" t="n">
-        <v>800.0052367892715</v>
+        <v>596.4134792113268</v>
       </c>
       <c r="U34" t="n">
-        <v>512.8433584738229</v>
+        <v>596.4134792113268</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1080540322456</v>
+        <v>596.4134792113268</v>
       </c>
       <c r="W34" t="n">
-        <v>252.1080540322456</v>
+        <v>596.4134792113268</v>
       </c>
       <c r="X34" t="n">
-        <v>252.1080540322456</v>
+        <v>596.4134792113268</v>
       </c>
       <c r="Y34" t="n">
-        <v>252.1080540322456</v>
+        <v>374.3783204036039</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1650.352645238795</v>
+        <v>1665.258396213294</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.418886571602</v>
+        <v>1665.258396213294</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5949217988257</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E35" t="n">
-        <v>500.8092019049325</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F35" t="n">
-        <v>86.65801121510287</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G35" t="n">
-        <v>86.65801121510287</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H35" t="n">
-        <v>86.65801121510287</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I35" t="n">
         <v>68.55268534786579</v>
@@ -6967,22 +6967,22 @@
         <v>3248.994681093121</v>
       </c>
       <c r="T35" t="n">
-        <v>3029.70991848809</v>
+        <v>3197.40886177638</v>
       </c>
       <c r="U35" t="n">
-        <v>2774.917314285035</v>
+        <v>3197.40886177638</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.938040180976</v>
+        <v>3197.40886177638</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.938040180976</v>
+        <v>2834.873931633982</v>
       </c>
       <c r="X35" t="n">
-        <v>2437.938040180976</v>
+        <v>2452.843791155475</v>
       </c>
       <c r="Y35" t="n">
-        <v>2044.396184756814</v>
+        <v>2059.301935731313</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G36" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H36" t="n">
         <v>115.581576881063</v>
@@ -7019,22 +7019,22 @@
         <v>186.2361291527469</v>
       </c>
       <c r="K36" t="n">
-        <v>513.8824979542864</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L36" t="n">
-        <v>534.4154268354285</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.46625880025</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N36" t="n">
-        <v>1842.82576773935</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O36" t="n">
-        <v>2379.650716857003</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.959364420818</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q36" t="n">
         <v>2506.667490147568</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.55268534786579</v>
+        <v>254.1701339366686</v>
       </c>
       <c r="C37" t="n">
-        <v>68.55268534786579</v>
+        <v>254.1701339366686</v>
       </c>
       <c r="D37" t="n">
-        <v>68.55268534786579</v>
+        <v>254.1701339366686</v>
       </c>
       <c r="E37" t="n">
-        <v>68.55268534786579</v>
+        <v>254.1701339366686</v>
       </c>
       <c r="F37" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="G37" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="H37" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I37" t="n">
         <v>68.55268534786579</v>
@@ -7122,25 +7122,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S37" t="n">
-        <v>827.3708054186045</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T37" t="n">
-        <v>596.4134792113268</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="U37" t="n">
-        <v>309.2516008958783</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="V37" t="n">
-        <v>68.55268534786579</v>
+        <v>540.3265354192695</v>
       </c>
       <c r="W37" t="n">
-        <v>68.55268534786579</v>
+        <v>254.1701339366686</v>
       </c>
       <c r="X37" t="n">
-        <v>68.55268534786579</v>
+        <v>254.1701339366686</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.55268534786579</v>
+        <v>254.1701339366686</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1633.040964190656</v>
+        <v>1903.214692685035</v>
       </c>
       <c r="C38" t="n">
-        <v>1251.107205523464</v>
+        <v>1521.280934017843</v>
       </c>
       <c r="D38" t="n">
-        <v>878.2832407506874</v>
+        <v>1148.456969245066</v>
       </c>
       <c r="E38" t="n">
-        <v>483.4975208567942</v>
+        <v>753.6712493511729</v>
       </c>
       <c r="F38" t="n">
-        <v>483.4975208567942</v>
+        <v>339.5200586613433</v>
       </c>
       <c r="G38" t="n">
         <v>68.55268534786579</v>
@@ -7174,16 +7174,16 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J38" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K38" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950429</v>
       </c>
       <c r="L38" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M38" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N38" t="n">
         <v>2322.568598257194</v>
@@ -7201,25 +7201,25 @@
         <v>3409.809502209782</v>
       </c>
       <c r="S38" t="n">
-        <v>3248.994681093121</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="T38" t="n">
-        <v>3029.70991848809</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="U38" t="n">
-        <v>2774.917314285035</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="V38" t="n">
-        <v>2437.938040180976</v>
+        <v>3072.830228105723</v>
       </c>
       <c r="W38" t="n">
-        <v>2075.403110038577</v>
+        <v>3072.830228105723</v>
       </c>
       <c r="X38" t="n">
-        <v>2026.582819614819</v>
+        <v>2690.800087627216</v>
       </c>
       <c r="Y38" t="n">
-        <v>1633.040964190656</v>
+        <v>2297.258232203054</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G39" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H39" t="n">
         <v>115.581576881063</v>
@@ -7256,19 +7256,19 @@
         <v>186.2361291527469</v>
       </c>
       <c r="K39" t="n">
-        <v>513.8824979542864</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L39" t="n">
         <v>1011.686951240981</v>
       </c>
       <c r="M39" t="n">
-        <v>1650.737783205802</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N39" t="n">
-        <v>1726.169660375287</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O39" t="n">
-        <v>2262.99460949294</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P39" t="n">
         <v>2271.303257056754</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.55268534786579</v>
+        <v>674.9191372591764</v>
       </c>
       <c r="C40" t="n">
-        <v>68.55268534786579</v>
+        <v>670.0087199146357</v>
       </c>
       <c r="D40" t="n">
-        <v>68.55268534786579</v>
+        <v>670.0087199146357</v>
       </c>
       <c r="E40" t="n">
-        <v>68.55268534786579</v>
+        <v>517.9997056759545</v>
       </c>
       <c r="F40" t="n">
-        <v>68.55268534786579</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="G40" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="H40" t="n">
-        <v>68.55268534786579</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I40" t="n">
         <v>68.55268534786579</v>
@@ -7359,25 +7359,25 @@
         <v>905.8764634664541</v>
       </c>
       <c r="S40" t="n">
-        <v>701.2281028169339</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="T40" t="n">
-        <v>470.2707766096562</v>
+        <v>674.9191372591764</v>
       </c>
       <c r="U40" t="n">
-        <v>354.7090868304667</v>
+        <v>674.9191372591764</v>
       </c>
       <c r="V40" t="n">
-        <v>354.7090868304667</v>
+        <v>674.9191372591764</v>
       </c>
       <c r="W40" t="n">
-        <v>68.55268534786579</v>
+        <v>674.9191372591764</v>
       </c>
       <c r="X40" t="n">
-        <v>68.55268534786579</v>
+        <v>674.9191372591764</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.55268534786579</v>
+        <v>674.9191372591764</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1305.400632917527</v>
+        <v>2047.192154880486</v>
       </c>
       <c r="C41" t="n">
-        <v>1305.400632917527</v>
+        <v>1665.258396213294</v>
       </c>
       <c r="D41" t="n">
-        <v>932.5766681447501</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E41" t="n">
-        <v>932.5766681447501</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F41" t="n">
-        <v>932.5766681447501</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G41" t="n">
-        <v>517.6318326358218</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H41" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I41" t="n">
         <v>68.55268534786579</v>
@@ -7435,28 +7435,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R41" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S41" t="n">
-        <v>3248.994681093121</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.70991848809</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="U41" t="n">
-        <v>2837.551098480613</v>
+        <v>3012.026842073573</v>
       </c>
       <c r="V41" t="n">
-        <v>2837.551098480613</v>
+        <v>2675.047567969514</v>
       </c>
       <c r="W41" t="n">
-        <v>2475.016168338214</v>
+        <v>2675.047567969514</v>
       </c>
       <c r="X41" t="n">
-        <v>2092.986027859708</v>
+        <v>2675.047567969514</v>
       </c>
       <c r="Y41" t="n">
-        <v>1699.444172435546</v>
+        <v>2441.235694398506</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1840.868797869529</v>
+        <v>919.9020206238073</v>
       </c>
       <c r="C42" t="n">
-        <v>1679.165125110484</v>
+        <v>758.198347864762</v>
       </c>
       <c r="D42" t="n">
-        <v>1540.326488100696</v>
+        <v>619.3597108549741</v>
       </c>
       <c r="E42" t="n">
-        <v>1393.298478157567</v>
+        <v>472.3317009118452</v>
       </c>
       <c r="F42" t="n">
-        <v>1258.604680107441</v>
+        <v>337.6379028617196</v>
       </c>
       <c r="G42" t="n">
-        <v>1130.496380612394</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H42" t="n">
-        <v>1036.548354126785</v>
+        <v>115.581576881063</v>
       </c>
       <c r="I42" t="n">
-        <v>989.5194625935875</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J42" t="n">
-        <v>1107.202906398468</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K42" t="n">
-        <v>1434.849275200008</v>
+        <v>513.8824979542864</v>
       </c>
       <c r="L42" t="n">
-        <v>1455.38220408115</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M42" t="n">
-        <v>1803.279578533123</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N42" t="n">
-        <v>2472.639087472223</v>
+        <v>1316.308077135688</v>
       </c>
       <c r="O42" t="n">
-        <v>3009.464036589876</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P42" t="n">
-        <v>3427.63426739329</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q42" t="n">
-        <v>3427.63426739329</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="R42" t="n">
-        <v>3406.356831902701</v>
+        <v>2485.39005465698</v>
       </c>
       <c r="S42" t="n">
-        <v>3265.077296844677</v>
+        <v>2344.110519598956</v>
       </c>
       <c r="T42" t="n">
-        <v>3078.892036180194</v>
+        <v>2157.925258934473</v>
       </c>
       <c r="U42" t="n">
-        <v>2860.438046441772</v>
+        <v>1939.471269196051</v>
       </c>
       <c r="V42" t="n">
-        <v>2632.042423890106</v>
+        <v>1711.075646644385</v>
       </c>
       <c r="W42" t="n">
-        <v>2390.726555123416</v>
+        <v>1469.759777877695</v>
       </c>
       <c r="X42" t="n">
-        <v>2192.809567001211</v>
+        <v>1271.842789755489</v>
       </c>
       <c r="Y42" t="n">
-        <v>2000.28824065079</v>
+        <v>1079.321463405068</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2939.79800539157</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="C43" t="n">
-        <v>2939.79800539157</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="D43" t="n">
-        <v>2939.79800539157</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="E43" t="n">
-        <v>2939.79800539157</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="F43" t="n">
-        <v>2787.317350417347</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G43" t="n">
-        <v>2618.917557035143</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H43" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I43" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J43" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K43" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L43" t="n">
-        <v>2733.351086222692</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M43" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N43" t="n">
-        <v>3127.634270415695</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O43" t="n">
-        <v>3298.128711166522</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P43" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q43" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R43" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S43" t="n">
-        <v>3222.985906743769</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T43" t="n">
-        <v>3222.985906743769</v>
+        <v>596.4134792113268</v>
       </c>
       <c r="U43" t="n">
-        <v>3222.985906743769</v>
+        <v>309.2516008958783</v>
       </c>
       <c r="V43" t="n">
-        <v>2962.250602302192</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="W43" t="n">
-        <v>2962.250602302192</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="X43" t="n">
-        <v>2962.250602302192</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="Y43" t="n">
-        <v>2962.250602302192</v>
+        <v>236.9524787300695</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1285.887158339581</v>
+        <v>1665.258396213294</v>
       </c>
       <c r="C44" t="n">
-        <v>1285.887158339581</v>
+        <v>1665.258396213294</v>
       </c>
       <c r="D44" t="n">
-        <v>913.0631935668046</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E44" t="n">
-        <v>804.4476397030008</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F44" t="n">
-        <v>804.4476397030008</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G44" t="n">
-        <v>389.5028041940724</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H44" t="n">
         <v>68.55268534786579</v>
@@ -7648,10 +7648,10 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9749331805679</v>
+        <v>236.9749331805681</v>
       </c>
       <c r="K44" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950432</v>
       </c>
       <c r="L44" t="n">
         <v>1148.797379660662</v>
@@ -7672,28 +7672,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R44" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S44" t="n">
-        <v>3409.809502209782</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T44" t="n">
-        <v>3409.809502209782</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="U44" t="n">
-        <v>3155.016898006726</v>
+        <v>3171.85320573804</v>
       </c>
       <c r="V44" t="n">
-        <v>2818.037623902668</v>
+        <v>2834.873931633982</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.502693760269</v>
+        <v>2834.873931633982</v>
       </c>
       <c r="X44" t="n">
-        <v>2073.472553281762</v>
+        <v>2452.843791155475</v>
       </c>
       <c r="Y44" t="n">
-        <v>1679.9306978576</v>
+        <v>2059.301935731313</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J45" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K45" t="n">
-        <v>396.1990541494053</v>
+        <v>513.8824979542864</v>
       </c>
       <c r="L45" t="n">
-        <v>416.7319830305476</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M45" t="n">
-        <v>1055.782814995369</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N45" t="n">
         <v>1316.308077135688</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>366.7352268578477</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="C46" t="n">
-        <v>197.1192573195279</v>
+        <v>809.4305900667815</v>
       </c>
       <c r="D46" t="n">
-        <v>197.1192573195279</v>
+        <v>656.3586968945442</v>
       </c>
       <c r="E46" t="n">
-        <v>197.1192573195279</v>
+        <v>504.3496826558631</v>
       </c>
       <c r="F46" t="n">
-        <v>197.1192573195279</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="G46" t="n">
-        <v>197.1192573195279</v>
+        <v>351.8690276816402</v>
       </c>
       <c r="H46" t="n">
         <v>197.1192573195279</v>
@@ -7833,25 +7833,25 @@
         <v>905.8764634664541</v>
       </c>
       <c r="S46" t="n">
-        <v>701.2281028169339</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="T46" t="n">
-        <v>701.2281028169339</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="U46" t="n">
-        <v>701.2281028169339</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="V46" t="n">
-        <v>701.2281028169339</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="W46" t="n">
-        <v>701.2281028169339</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="X46" t="n">
-        <v>701.2281028169339</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="Y46" t="n">
-        <v>479.1929440092109</v>
+        <v>905.8764634664541</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8300,13 +8300,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>173.9082232290045</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8315,7 +8315,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>193.3806259623375</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8531,13 +8531,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>253.0836423644581</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8549,7 +8549,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260146</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834668</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8783,13 +8783,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>450.0846164268631</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562192</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9014,7 +9014,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>277.8578053120003</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9023,10 +9023,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>271.8947139899008</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>101.1681629939445</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193966</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9257,7 +9257,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>184.4622374967487</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>101.1681629939445</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193966</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9494,7 +9494,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>184.4622374967487</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9716,19 +9716,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>430.1943468063452</v>
+        <v>214.6331695123111</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236961</v>
       </c>
       <c r="K26" t="n">
         <v>421.3890363425141</v>
@@ -9953,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>45.04618048305564</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>12.84888003398906</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>210.1812009912844</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>87.64284235113004</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10199,10 +10199,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>214.6331695123111</v>
       </c>
       <c r="N30" t="n">
-        <v>214.6331695123116</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10427,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10436,7 +10436,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>333.5053349717874</v>
+        <v>214.6331695123111</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10670,22 +10670,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>214.6331695123111</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>155.2660221737115</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10910,16 +10910,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>214.6331695123111</v>
       </c>
       <c r="N39" t="n">
-        <v>23.21818586923008</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11144,13 +11144,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>311.3221813468695</v>
+        <v>214.6331695123116</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236961</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155857</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11375,19 +11375,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>214.6331695123116</v>
       </c>
       <c r="N45" t="n">
-        <v>210.1812009912844</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>358.3069361105401</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.9784067573772</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23424,7 +23424,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>24.63570250183582</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -23433,7 +23433,7 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>31.41657117931918</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
         <v>137.6086505120454</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R13" t="n">
         <v>140.32293915197</v>
@@ -23472,13 +23472,13 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>236.3572914867356</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.5814052293737</v>
+        <v>68.47561386108123</v>
       </c>
       <c r="I14" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
         <v>140.32293915197</v>
@@ -23706,22 +23706,22 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>35.39926125678087</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>56.88074777278433</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>236.9184438956111</v>
       </c>
       <c r="H17" t="n">
         <v>325.5814052293737</v>
@@ -23785,7 +23785,7 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>28.14729085612311</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
         <v>252.305926837283</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.6625840780576</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>90.89666260672462</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T19" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23958,7 +23958,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>236.9184438956107</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>102.9720449322676</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
         <v>156.363858050434</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -24138,10 +24138,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0592210434877</v>
+        <v>10.87680538018918</v>
       </c>
       <c r="H22" t="n">
         <v>156.2556384040709</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T22" t="n">
         <v>230.1151168515673</v>
@@ -24192,10 +24192,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.1939321076484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>51.37161012857376</v>
       </c>
       <c r="W23" t="n">
-        <v>99.61844762880247</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24375,19 +24375,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>127.2809062519456</v>
       </c>
       <c r="J25" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T25" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>248.7994982509227</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.00307927907008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>111.2653696321975</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>191.0351916465866</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>11.3889077795865</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.7157954483816</v>
@@ -24624,7 +24624,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J28" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S28" t="n">
         <v>202.601877043025</v>
@@ -24657,19 +24657,19 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V28" t="n">
-        <v>216.5773152794737</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>327.9270372015828</v>
+        <v>272.0254996878814</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24846,13 +24846,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>55.75154092103696</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.2022726584912</v>
@@ -24861,7 +24861,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J31" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V31" t="n">
-        <v>144.7173005802832</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>72.60280662310942</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>257.8303610558963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25083,13 +25083,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7157954483816</v>
+        <v>14.43734083949528</v>
       </c>
       <c r="H34" t="n">
         <v>153.2022726584912</v>
@@ -25098,7 +25098,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J34" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>123.8352385347941</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S34" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -25143,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I35" t="n">
-        <v>108.9234655487671</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>166.0219538554079</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>94.47548057351139</v>
       </c>
       <c r="G37" t="n">
         <v>166.7157954483816</v>
@@ -25332,10 +25332,10 @@
         <v>153.2022726584912</v>
       </c>
       <c r="I37" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V37" t="n">
-        <v>19.83602500462925</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>142.5376875734964</v>
       </c>
       <c r="H38" t="n">
         <v>317.7406176577446</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>329.8777515542009</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,28 +25551,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>163.0584966718412</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.2022726584912</v>
       </c>
       <c r="I40" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>169.8841866508964</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U41" t="n">
-        <v>62.0074463536229</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>158.1326820346218</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159.4917440560201</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -25797,13 +25797,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I43" t="n">
         <v>127.2809062519456</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>186.5518204530109</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>283.3084643697885</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I44" t="n">
         <v>126.8477381573318</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S44" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.0919149789806</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>158.2281000278226</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.38667501768643</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.43839517726067</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T46" t="n">
         <v>228.6477529452049</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>588119.7401033773</v>
+        <v>588119.7401033774</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>588119.7401033771</v>
+        <v>588119.740103377</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>588119.740103377</v>
+        <v>588119.7401033771</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677418.4567519975</v>
+        <v>677418.4567519973</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677418.4567519975</v>
+        <v>677418.4567519972</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677418.4567519972</v>
+        <v>677418.4567519976</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677418.4567519975</v>
+        <v>677418.4567519976</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677418.4567519973</v>
+        <v>677418.4567519971</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677418.4567519971</v>
+        <v>677418.4567519973</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>518146.2408335725</v>
       </c>
       <c r="D2" t="n">
-        <v>518146.2408335726</v>
+        <v>518146.2408335729</v>
       </c>
       <c r="E2" t="n">
         <v>340821.0813116257</v>
       </c>
       <c r="F2" t="n">
-        <v>340821.0813116257</v>
+        <v>340821.0813116258</v>
       </c>
       <c r="G2" t="n">
         <v>340821.0813116256</v>
@@ -26334,28 +26334,28 @@
         <v>340821.0813116257</v>
       </c>
       <c r="I2" t="n">
-        <v>398719.7081799606</v>
+        <v>398719.7081799604</v>
       </c>
       <c r="J2" t="n">
         <v>398719.7081799604</v>
       </c>
       <c r="K2" t="n">
-        <v>398719.7081799604</v>
+        <v>398719.7081799603</v>
       </c>
       <c r="L2" t="n">
         <v>398719.7081799604</v>
       </c>
       <c r="M2" t="n">
-        <v>398719.7081799605</v>
+        <v>398719.7081799604</v>
       </c>
       <c r="N2" t="n">
-        <v>398719.7081799605</v>
+        <v>398719.7081799604</v>
       </c>
       <c r="O2" t="n">
-        <v>398719.7081799603</v>
+        <v>398719.7081799604</v>
       </c>
       <c r="P2" t="n">
-        <v>398719.7081799606</v>
+        <v>398719.7081799604</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>230590.454856354</v>
       </c>
       <c r="C4" t="n">
-        <v>230590.4548563539</v>
+        <v>230590.454856354</v>
       </c>
       <c r="D4" t="n">
         <v>230590.4548563539</v>
@@ -26429,13 +26429,13 @@
         <v>45815.73349615595</v>
       </c>
       <c r="F4" t="n">
-        <v>45815.73349615595</v>
+        <v>45815.73349615594</v>
       </c>
       <c r="G4" t="n">
         <v>45815.73349615595</v>
       </c>
       <c r="H4" t="n">
-        <v>45815.73349615595</v>
+        <v>45815.73349615594</v>
       </c>
       <c r="I4" t="n">
         <v>43017.19413117206</v>
@@ -26447,7 +26447,7 @@
         <v>43017.19413117206</v>
       </c>
       <c r="L4" t="n">
-        <v>43017.19413117205</v>
+        <v>43017.19413117206</v>
       </c>
       <c r="M4" t="n">
         <v>43017.19413117206</v>
@@ -26456,7 +26456,7 @@
         <v>43017.19413117206</v>
       </c>
       <c r="O4" t="n">
-        <v>43017.19413117205</v>
+        <v>43017.19413117206</v>
       </c>
       <c r="P4" t="n">
         <v>43017.19413117206</v>
@@ -26484,10 +26484,10 @@
         <v>40720.20246230468</v>
       </c>
       <c r="G5" t="n">
+        <v>40720.20246230467</v>
+      </c>
+      <c r="H5" t="n">
         <v>40720.20246230468</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40720.20246230467</v>
       </c>
       <c r="I5" t="n">
         <v>58322.96928678589</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45948.56662278017</v>
+        <v>45948.5666227802</v>
       </c>
       <c r="C6" t="n">
-        <v>221989.7513403072</v>
+        <v>221989.7513403071</v>
       </c>
       <c r="D6" t="n">
-        <v>221989.7513403073</v>
+        <v>221989.7513403075</v>
       </c>
       <c r="E6" t="n">
-        <v>144999.2787038639</v>
+        <v>138431.680203051</v>
       </c>
       <c r="F6" t="n">
-        <v>254285.1453531651</v>
+        <v>247717.5468523523</v>
       </c>
       <c r="G6" t="n">
-        <v>254285.145353165</v>
+        <v>247717.5468523521</v>
       </c>
       <c r="H6" t="n">
-        <v>254285.145353165</v>
+        <v>247717.5468523522</v>
       </c>
       <c r="I6" t="n">
-        <v>95191.25846913698</v>
+        <v>90768.05355604003</v>
       </c>
       <c r="J6" t="n">
-        <v>159937.1139702254</v>
+        <v>155513.9090571286</v>
       </c>
       <c r="K6" t="n">
-        <v>297379.5447620025</v>
+        <v>292956.3398489056</v>
       </c>
       <c r="L6" t="n">
-        <v>297379.5447620025</v>
+        <v>292956.3398489057</v>
       </c>
       <c r="M6" t="n">
-        <v>269874.7081051061</v>
+        <v>265451.5031920092</v>
       </c>
       <c r="N6" t="n">
-        <v>297379.5447620026</v>
+        <v>292956.3398489057</v>
       </c>
       <c r="O6" t="n">
-        <v>297379.5447620024</v>
+        <v>292956.3398489057</v>
       </c>
       <c r="P6" t="n">
-        <v>297379.5447620027</v>
+        <v>292956.3398489057</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="F3" t="n">
         <v>95.01032947988872</v>
@@ -26758,22 +26758,22 @@
         <v>95.01032947988872</v>
       </c>
       <c r="I3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="J3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="K3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="L3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="M3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="N3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="O3" t="n">
         <v>285.4554322205455</v>
@@ -26792,7 +26792,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="C4" t="n">
-        <v>525.3032012649904</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649904</v>
@@ -26804,10 +26804,10 @@
         <v>635.6739684151827</v>
       </c>
       <c r="G4" t="n">
+        <v>635.6739684151826</v>
+      </c>
+      <c r="H4" t="n">
         <v>635.6739684151827</v>
-      </c>
-      <c r="H4" t="n">
-        <v>635.6739684151826</v>
       </c>
       <c r="I4" t="n">
         <v>856.9085668483224</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>221.2345984331398</v>
+        <v>221.2345984331397</v>
       </c>
       <c r="J4" t="n">
         <v>525.3032012649903</v>
@@ -27390,16 +27390,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>256.112309211549</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.6039785144797</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>98.8380868486705</v>
+        <v>57.60636999204328</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27599,13 +27599,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>74.7425842446109</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.9303493528027</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>285.94632690945</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>312.5779919627047</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.73058256318961</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>31.1484304871807</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27788,7 +27788,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27833,7 +27833,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>129.1404950786513</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27842,7 +27842,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.22651541493755</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>135.295108164616</v>
+        <v>51.87089779513457</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>142.6678699418024</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,10 +27985,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>111.1114816664868</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>161.7514780927761</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>128.257138091228</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28073,13 +28073,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32706,16 +32706,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I23" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J23" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K23" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L23" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M23" t="n">
         <v>201.5014117101341</v>
@@ -32727,22 +32727,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P23" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q23" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R23" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S23" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T23" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H24" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I24" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J24" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K24" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L24" t="n">
         <v>133.3157657743218</v>
@@ -32809,19 +32809,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R24" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S24" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T24" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,43 +32858,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H25" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I25" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J25" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K25" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L25" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M25" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N25" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O25" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P25" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R25" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S25" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T25" t="n">
         <v>2.199410707273055</v>
@@ -32943,16 +32943,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I26" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J26" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K26" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L26" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M26" t="n">
         <v>201.5014117101341</v>
@@ -32964,22 +32964,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P26" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R26" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S26" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T26" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H27" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I27" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J27" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K27" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L27" t="n">
         <v>133.3157657743218</v>
@@ -33046,19 +33046,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R27" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S27" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T27" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,43 +33095,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H28" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I28" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J28" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K28" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L28" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M28" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N28" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O28" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P28" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R28" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S28" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T28" t="n">
         <v>2.199410707273055</v>
@@ -33180,16 +33180,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I29" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J29" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K29" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L29" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M29" t="n">
         <v>201.5014117101341</v>
@@ -33201,22 +33201,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P29" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R29" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S29" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T29" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H30" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I30" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J30" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K30" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L30" t="n">
         <v>133.3157657743218</v>
@@ -33283,19 +33283,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R30" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S30" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T30" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,43 +33332,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H31" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I31" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J31" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K31" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L31" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M31" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N31" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O31" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P31" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R31" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S31" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T31" t="n">
         <v>2.199410707273055</v>
@@ -33417,16 +33417,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I32" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J32" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K32" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L32" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M32" t="n">
         <v>201.5014117101341</v>
@@ -33438,22 +33438,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P32" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R32" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S32" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T32" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H33" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I33" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J33" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K33" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L33" t="n">
         <v>133.3157657743218</v>
@@ -33520,19 +33520,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R33" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S33" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T33" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,43 +33569,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H34" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I34" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J34" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K34" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L34" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M34" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N34" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O34" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P34" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R34" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S34" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T34" t="n">
         <v>2.199410707273055</v>
@@ -33654,16 +33654,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I35" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J35" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K35" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L35" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M35" t="n">
         <v>201.5014117101341</v>
@@ -33675,22 +33675,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P35" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q35" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R35" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S35" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T35" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H36" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I36" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J36" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K36" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L36" t="n">
         <v>133.3157657743218</v>
@@ -33757,19 +33757,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R36" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S36" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T36" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,43 +33806,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H37" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I37" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J37" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K37" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L37" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M37" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N37" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O37" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P37" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R37" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S37" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T37" t="n">
         <v>2.199410707273055</v>
@@ -33891,16 +33891,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I38" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J38" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K38" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L38" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M38" t="n">
         <v>201.5014117101341</v>
@@ -33912,22 +33912,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P38" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q38" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R38" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S38" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T38" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H39" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I39" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J39" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K39" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L39" t="n">
         <v>133.3157657743218</v>
@@ -33994,19 +33994,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R39" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S39" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T39" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,43 +34043,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H40" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I40" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J40" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K40" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L40" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M40" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N40" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O40" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P40" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R40" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S40" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T40" t="n">
         <v>2.199410707273055</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34798,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>67.19308216129619</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35035,7 +35035,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>79.64543451744501</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>140.5082087933103</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35269,7 +35269,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>15.2758124018713</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K11" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M11" t="n">
         <v>464.2785454406509</v>
@@ -35424,13 +35424,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P11" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35500,10 +35500,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O12" t="n">
-        <v>382.8480484128796</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L13" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M13" t="n">
         <v>146.0421320399604</v>
@@ -35582,7 +35582,7 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O13" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P13" t="n">
         <v>84.32612612324624</v>
@@ -35734,7 +35734,7 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>214.1545323168998</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
         <v>569.5810543320048</v>
@@ -35743,10 +35743,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558448</v>
+        <v>202.0646563138272</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17048660913161</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
@@ -35977,7 +35977,7 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
-        <v>117.2256694827652</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
         <v>344.1715415558448</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17048660913161</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
@@ -36214,7 +36214,7 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>117.2256694827652</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K24" t="n">
         <v>330.9559280823631</v>
       </c>
       <c r="L24" t="n">
-        <v>20.74033220317398</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M24" t="n">
-        <v>470.2836548049025</v>
+        <v>254.7224775108685</v>
       </c>
       <c r="N24" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O24" t="n">
         <v>542.2474233511649</v>
@@ -36457,7 +36457,7 @@
         <v>422.3941725287006</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>170.1234826592951</v>
+        <v>170.1234826592952</v>
       </c>
       <c r="K26" t="n">
         <v>388.5399074893688</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>330.9559280823631</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>20.74033220317398</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M27" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N27" t="n">
-        <v>263.156830444766</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O27" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P27" t="n">
-        <v>422.3941725287006</v>
+        <v>96.03541564791232</v>
       </c>
       <c r="Q27" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>502.8327810976709</v>
       </c>
       <c r="M30" t="n">
-        <v>40.08930799855739</v>
+        <v>254.7224775108685</v>
       </c>
       <c r="N30" t="n">
-        <v>267.6087989657932</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O30" t="n">
         <v>542.2474233511649</v>
@@ -37010,7 +37010,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K33" t="n">
         <v>330.9559280823631</v>
@@ -37156,10 +37156,10 @@
         <v>502.8327810976709</v>
       </c>
       <c r="M33" t="n">
-        <v>373.5946429703448</v>
+        <v>254.7224775108685</v>
       </c>
       <c r="N33" t="n">
-        <v>52.97562945348159</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O33" t="n">
         <v>542.2474233511649</v>
@@ -37247,7 +37247,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>330.9559280823631</v>
       </c>
       <c r="L36" t="n">
-        <v>20.74033220317398</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M36" t="n">
-        <v>645.5058908735573</v>
+        <v>254.7224775108685</v>
       </c>
       <c r="N36" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O36" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P36" t="n">
-        <v>8.39257329678226</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.9071977037884</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>502.8327810976709</v>
       </c>
       <c r="M39" t="n">
-        <v>645.5058908735573</v>
+        <v>254.7224775108685</v>
       </c>
       <c r="N39" t="n">
-        <v>76.19381532271167</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O39" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P39" t="n">
-        <v>8.39257329678226</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q39" t="n">
         <v>237.7416495866808</v>
@@ -37721,7 +37721,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>330.9559280823631</v>
       </c>
       <c r="L42" t="n">
-        <v>20.74033220317398</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M42" t="n">
-        <v>351.4114893454269</v>
+        <v>254.722477510869</v>
       </c>
       <c r="N42" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O42" t="n">
         <v>542.2474233511649</v>
@@ -37879,7 +37879,7 @@
         <v>422.3941725287006</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>170.1234826592951</v>
+        <v>170.1234826592952</v>
       </c>
       <c r="K44" t="n">
         <v>388.5399074893688</v>
       </c>
       <c r="L44" t="n">
-        <v>532.4928667329484</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M44" t="n">
         <v>598.7126907536573</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K45" t="n">
         <v>330.9559280823631</v>
       </c>
       <c r="L45" t="n">
-        <v>20.74033220317398</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M45" t="n">
-        <v>645.5058908735573</v>
+        <v>254.722477510869</v>
       </c>
       <c r="N45" t="n">
-        <v>263.156830444766</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O45" t="n">
         <v>542.2474233511649</v>
